--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FA1894-CD91-4B51-806C-E237DFBB1C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181D0B84-3795-4147-B2DE-997BD36B7378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4455" yWindow="0" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>Index</t>
   </si>
@@ -230,6 +230,14 @@
   </si>
   <si>
     <t>전화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 오지게 긴 단어를 넣어서 이게 어디까지 늘어나서 줄 바꿈이 되는지 테스트를 하고자 함에 이러한 긴 문장을 작성하는 것에 대한 회의감을 느끼고 있는 중입니다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,9 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,7 +1264,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1723,10 +1728,18 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181D0B84-3795-4147-B2DE-997BD36B7378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA1BF06-BCA4-492E-BAD2-D23B9F5B3956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="0" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>진짜 오지게 긴 단어를 넣어서 이게 어디까지 늘어나서 줄 바꿈이 되는지 테스트를 하고자 함에 이러한 긴 문장을 작성하는 것에 대한 회의감을 느끼고 있는 중입니다.</t>
+    <t>패처 정상작동 테스트</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA1BF06-BCA4-492E-BAD2-D23B9F5B3956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FB424-4AF7-41C2-A029-CA2ED9AE5932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="11640" yWindow="1410" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -723,17 +723,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -863,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,12 +866,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1264,7 +1247,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1731,15 +1714,17 @@
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FB424-4AF7-41C2-A029-CA2ED9AE5932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D8F75-7C0A-44B9-840D-9D925A658267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1410" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="2820" yWindow="1935" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>여보세요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>charlotte</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -238,6 +234,10 @@
   </si>
   <si>
     <t>패처 정상작동 테스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -1638,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1678,13 +1678,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1718,10 +1718,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1736,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5748DA4E-B332-40AA-BCE6-74B3435AFCF9}">
   <dimension ref="B1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D8F75-7C0A-44B9-840D-9D925A658267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571BA33-4594-41E2-8CAD-9812FED94A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1935" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571BA33-4594-41E2-8CAD-9812FED94A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CB2945-1A4C-40D7-BB1D-2469C116AB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>Index</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>대화테스트1번</t>
   </si>
   <si>
@@ -238,6 +235,21 @@
   </si>
   <si>
     <t>굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_End</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Begin</t>
+  </si>
+  <si>
+    <t>1_Begin</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1244,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1270,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1270,48 +1282,48 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3">
         <v>874</v>
@@ -1323,7 +1335,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="3">
         <v>874</v>
@@ -1334,19 +1346,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3">
         <v>874</v>
@@ -1358,7 +1370,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="3">
         <v>874</v>
@@ -1369,19 +1381,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3">
         <v>874</v>
@@ -1393,7 +1405,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="3">
         <v>874</v>
@@ -1404,19 +1416,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3">
         <v>874</v>
@@ -1426,7 +1438,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="3">
         <v>874</v>
@@ -1437,19 +1449,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3">
         <v>874</v>
@@ -1461,7 +1473,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="3">
         <v>874</v>
@@ -1472,19 +1484,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3">
         <v>874</v>
@@ -1496,7 +1508,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="3">
         <v>874</v>
@@ -1507,19 +1519,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3">
         <v>874</v>
@@ -1531,7 +1543,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="3">
         <v>874</v>
@@ -1542,19 +1554,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3">
         <v>874</v>
@@ -1566,7 +1578,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="3">
         <v>874</v>
@@ -1577,19 +1589,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3">
         <v>874</v>
@@ -1601,7 +1613,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" s="3">
         <v>874</v>
@@ -1612,19 +1624,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -1632,19 +1644,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1652,19 +1664,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1672,19 +1684,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1692,19 +1704,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1712,19 +1724,54 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3">
+        <v>874</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="3">
+        <v>874</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1744,72 +1791,72 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CB2945-1A4C-40D7-BB1D-2469C116AB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2C9E89-9E00-48CD-B3BF-5E2DBB180203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>Index</t>
   </si>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Layer1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -103,19 +99,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Layer2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Pos3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Layer3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1256,10 +1244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1268,9 +1256,9 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1299,54 +1287,38 @@
       <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3">
         <v>874</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="3">
-        <v>874</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1358,30 +1330,23 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3">
         <v>874</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="3">
-        <v>874</v>
-      </c>
-      <c r="M3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -1393,30 +1358,23 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3">
         <v>874</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="3">
-        <v>874</v>
-      </c>
-      <c r="M4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -1428,28 +1386,23 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3">
         <v>874</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="3">
-        <v>874</v>
-      </c>
-      <c r="M5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -1461,30 +1414,23 @@
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3">
         <v>874</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="3">
-        <v>874</v>
-      </c>
-      <c r="M6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -1496,30 +1442,23 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3">
         <v>874</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="3">
-        <v>874</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -1531,30 +1470,23 @@
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3">
         <v>874</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="3">
-        <v>874</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -1566,30 +1498,23 @@
         <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3">
         <v>874</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="3">
-        <v>874</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -1601,176 +1526,162 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3">
         <v>874</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
+      <c r="I10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="L10" s="3">
-        <v>874</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3">
         <v>874</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="3">
-        <v>874</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2</v>
+      <c r="I17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="3">
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -1791,72 +1702,72 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2C9E89-9E00-48CD-B3BF-5E2DBB180203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16123340-D9EC-437C-B7FF-DC615E01C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>Index</t>
   </si>
@@ -50,9 +50,6 @@
     <t>테스트4</t>
   </si>
   <si>
-    <t>대화테스트4번</t>
-  </si>
-  <si>
     <t>테스트5</t>
   </si>
   <si>
@@ -239,6 +236,41 @@
   <si>
     <t>1_Begin</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 번에 배경 페이드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fade_out</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fade_in</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Street</t>
   </si>
 </sst>
 </file>
@@ -1244,163 +1276,187 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.25" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="39.25" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3">
-        <v>874</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="3">
+        <v>874</v>
+      </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="3">
+        <v>874</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="3">
-        <v>874</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3">
+        <v>874</v>
+      </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="3">
+        <v>874</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3">
-        <v>874</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3">
+        <v>874</v>
+      </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3">
+        <v>874</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3">
-        <v>874</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3">
+        <v>874</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="3">
+        <v>874</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -1408,27 +1464,31 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="3">
-        <v>874</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3">
+        <v>874</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="3">
+        <v>874</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
@@ -1436,253 +1496,387 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="3">
-        <v>874</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3">
+        <v>874</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="3">
+        <v>874</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="3">
-        <v>874</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3">
+        <v>874</v>
+      </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="3">
+        <v>874</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="3">
-        <v>874</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3">
+        <v>874</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="3">
+        <v>874</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3">
+        <v>874</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="3">
+        <v>874</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>874</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="3">
+        <v>874</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3">
+        <v>874</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="3">
+        <v>874</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="3">
-        <v>874</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="G19" s="3">
+        <v>874</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="3">
-        <v>874</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="3">
-        <v>874</v>
-      </c>
+      <c r="K19" s="3">
+        <v>874</v>
+      </c>
+      <c r="L19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1702,72 +1896,72 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16123340-D9EC-437C-B7FF-DC615E01C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCACBC61-69D5-4114-96DB-A671CE43D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -1279,7 +1279,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCACBC61-69D5-4114-96DB-A671CE43D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFFD832-B616-4C67-A94C-5B9A8C12B99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="2055" yWindow="0" windowWidth="23235" windowHeight="15600" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>Index</t>
   </si>
@@ -32,21 +32,12 @@
     <t>Text</t>
   </si>
   <si>
-    <t>대화테스트1번</t>
-  </si>
-  <si>
     <t>테스트2</t>
   </si>
   <si>
     <t>대화테스트2번</t>
   </si>
   <si>
-    <t>테스트3</t>
-  </si>
-  <si>
-    <t>대화테스트3번</t>
-  </si>
-  <si>
     <t>테스트4</t>
   </si>
   <si>
@@ -80,83 +71,196 @@
     <t>대화테스트9번</t>
   </si>
   <si>
+    <t>Pos1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":1,"Name":"테스트2","Text":"대화테스트2번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":2,"Name":"테스트3","Text":"대화테스트3번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":3,"Name":"테스트4","Text":"대화테스트4번","Sprite1":308801,"Pos1":874,"Layer1":null,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":4,"Name":"테스트5","Text":"대화테스트5번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":5,"Name":"테스트6","Text":"대화테스트6번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":6,"Name":"테스트7","Text":"대화테스트7번","Sprite1":308801,"Pos1":874,"Layer1":1,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":7,"Name":"테스트8","Text":"대화테스트8번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":8,"Name":"테스트9","Text":"대화테스트9번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Test":</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":0,"Name":"테스트1","Text":"대화테스트1번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_308001</t>
+  </si>
+  <si>
+    <t>D_308001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님 도장 틀렸어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇군요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주의하겠습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 수고요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>애들리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>패처 정상작동 테스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_End</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Begin</t>
+  </si>
+  <si>
+    <t>1_Begin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 번에 배경 페이드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fade_out</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fade_in</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Street</t>
+  </si>
+  <si>
+    <t>main_talk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공의 말하기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainTalk_Sprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Sprite1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Pos1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":1,"Name":"테스트2","Text":"대화테스트2번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":2,"Name":"테스트3","Text":"대화테스트3번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":3,"Name":"테스트4","Text":"대화테스트4번","Sprite1":308801,"Pos1":874,"Layer1":null,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":4,"Name":"테스트5","Text":"대화테스트5번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":5,"Name":"테스트6","Text":"대화테스트6번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":6,"Name":"테스트7","Text":"대화테스트7번","Sprite1":308801,"Pos1":874,"Layer1":1,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":7,"Name":"테스트8","Text":"대화테스트8번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":8,"Name":"테스트9","Text":"대화테스트9번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Test":</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":0,"Name":"테스트1","Text":"대화테스트1번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>D_308801</t>
   </si>
   <si>
@@ -164,113 +268,16 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>D_308001</t>
-  </si>
-  <si>
-    <t>D_308001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stamp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>charlotte</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선생님 도장 틀렸어요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>testc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇군요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주의하겠습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 수고요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>애들리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>패처 정상작동 테스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_End</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>완</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_Begin</t>
-  </si>
-  <si>
-    <t>1_Begin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 번에 배경 페이드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fade_out</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>background</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fade_in</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Street</t>
+    <t>test1face</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공의 말하기 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2face</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1276,29 +1283,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="39.25" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="39.125" customWidth="1"/>
+    <col min="6" max="7" width="16" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1307,30 +1314,33 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -1339,62 +1349,66 @@
         <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="3">
-        <v>874</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="3">
+        <v>874</v>
+      </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="3">
-        <v>874</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3">
+        <v>874</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="3">
-        <v>874</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="3">
+        <v>874</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="3">
-        <v>874</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="3">
+        <v>874</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -1403,440 +1417,446 @@
         <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3">
-        <v>874</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="3">
+        <v>874</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="3">
-        <v>874</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3">
+        <v>874</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3">
-        <v>874</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="3">
+        <v>874</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3">
-        <v>874</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3">
+        <v>874</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="3">
-        <v>874</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>874</v>
+      </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="3">
-        <v>874</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3">
+        <v>874</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3">
-        <v>874</v>
-      </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>874</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="3">
-        <v>874</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="3">
+        <v>874</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="3">
-        <v>874</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="3">
+        <v>874</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="3">
-        <v>874</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="3">
+        <v>874</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="3">
-        <v>874</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="3">
+        <v>874</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="3">
-        <v>874</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="3">
+        <v>874</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3">
-        <v>874</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="3">
+        <v>874</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="3">
-        <v>874</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="3">
+        <v>874</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3">
-        <v>874</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="3">
+        <v>874</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="3">
-        <v>874</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="3">
+        <v>874</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="3">
-        <v>874</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="3">
+        <v>874</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="3">
-        <v>874</v>
-      </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="3">
+        <v>874</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="3">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="3">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="3">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="3">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="3">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3">
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1845,38 +1865,40 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="3">
-        <v>874</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="3">
+        <v>874</v>
+      </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="3">
-        <v>874</v>
-      </c>
-      <c r="L19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="3">
+        <v>874</v>
+      </c>
+      <c r="M19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1896,72 +1918,72 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFFD832-B616-4C67-A94C-5B9A8C12B99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C171F4-8C74-4F41-8231-F614F2676CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="0" windowWidth="23235" windowHeight="15600" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C171F4-8C74-4F41-8231-F614F2676CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AC4708-8A46-4275-9CC8-3D82C047B9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="0" windowWidth="23235" windowHeight="15600" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>테스트2</t>
   </si>
   <si>
-    <t>대화테스트2번</t>
-  </si>
-  <si>
     <t>테스트4</t>
   </si>
   <si>
@@ -249,10 +246,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>주인공의 말하기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>MainTalk_Sprite</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -277,6 +270,14 @@
   </si>
   <si>
     <t>test2face</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공의 말하는데 엄청 긴 단어를 말하는 중</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청 긴 단어를 말하는 중 엄청 긴 단어를 말하는 중</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1287,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,13 +1300,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1314,51 +1315,51 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3">
         <v>874</v>
@@ -1366,7 +1367,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="3">
         <v>874</v>
@@ -1375,23 +1376,23 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" s="3">
         <v>874</v>
@@ -1399,7 +1400,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" s="3">
         <v>874</v>
@@ -1408,25 +1409,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="3">
         <v>874</v>
@@ -1434,7 +1435,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="3">
         <v>874</v>
@@ -1443,23 +1444,23 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" s="3">
         <v>874</v>
@@ -1467,7 +1468,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="3">
         <v>874</v>
@@ -1476,23 +1477,23 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="3">
         <v>874</v>
@@ -1500,7 +1501,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" s="3">
         <v>874</v>
@@ -1509,23 +1510,23 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H7" s="3">
         <v>874</v>
@@ -1533,34 +1534,34 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="3">
         <v>874</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H8" s="3">
         <v>874</v>
@@ -1568,7 +1569,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="3">
         <v>874</v>
@@ -1577,23 +1578,23 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9" s="3">
         <v>874</v>
@@ -1601,7 +1602,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" s="3">
         <v>874</v>
@@ -1610,23 +1611,23 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" s="3">
         <v>874</v>
@@ -1634,7 +1635,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="3">
         <v>874</v>
@@ -1643,23 +1644,23 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H11" s="3">
         <v>874</v>
@@ -1667,7 +1668,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="3">
         <v>874</v>
@@ -1676,23 +1677,23 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" s="3">
         <v>874</v>
@@ -1700,7 +1701,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L12" s="3">
         <v>874</v>
@@ -1709,19 +1710,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1736,19 +1737,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1763,19 +1764,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1790,19 +1791,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1817,19 +1818,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1844,19 +1845,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3">
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1869,23 +1870,23 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H19" s="3">
         <v>874</v>
@@ -1893,7 +1894,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="3">
         <v>874</v>
@@ -1918,72 +1919,72 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AC4708-8A46-4275-9CC8-3D82C047B9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A46C2-73B3-460F-9D1E-151034176003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -1287,13 +1287,13 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="39.125" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
@@ -1395,7 +1395,7 @@
         <v>64</v>
       </c>
       <c r="H3" s="3">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A46C2-73B3-460F-9D1E-151034176003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7784B3A3-7BC4-4B87-A24B-A1579926CA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>Index</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>엄청 긴 단어를 말하는 중 엄청 긴 단어를 말하는 중</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr1_daily</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 날씨가 좋네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>춥다</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -763,6 +775,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -892,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -906,6 +929,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1284,10 +1316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1900,6 +1932,40 @@
         <v>874</v>
       </c>
       <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7784B3A3-7BC4-4B87-A24B-A1579926CA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026F1FF5-7832-46C8-9A14-613EAD5D84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
   <si>
     <t>Index</t>
   </si>
@@ -41,243 +41,252 @@
     <t>테스트5</t>
   </si>
   <si>
-    <t>대화테스트5번</t>
+    <t>테스트1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":1,"Name":"테스트2","Text":"대화테스트2번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":2,"Name":"테스트3","Text":"대화테스트3번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":3,"Name":"테스트4","Text":"대화테스트4번","Sprite1":308801,"Pos1":874,"Layer1":null,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":4,"Name":"테스트5","Text":"대화테스트5번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":5,"Name":"테스트6","Text":"대화테스트6번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":6,"Name":"테스트7","Text":"대화테스트7번","Sprite1":308801,"Pos1":874,"Layer1":1,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":7,"Name":"테스트8","Text":"대화테스트8번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":8,"Name":"테스트9","Text":"대화테스트9번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Test":</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":0,"Name":"테스트1","Text":"대화테스트1번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님 도장 틀렸어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇군요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주의하겠습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 수고요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>애들리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>패처 정상작동 테스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_End</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Begin</t>
+  </si>
+  <si>
+    <t>1_Begin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fade_out</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fade_in</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Street</t>
+  </si>
+  <si>
+    <t>MainTalk_Sprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1face</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공의 말하기 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2face</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청 긴 단어를 말하는 중 엄청 긴 단어를 말하는 중</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_Spd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmd_Target</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>말하면서 페이드인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>말하면서 페이드아웃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>테스트6</t>
-  </si>
-  <si>
-    <t>대화테스트6번</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>테스트7</t>
-  </si>
-  <si>
-    <t>대화테스트7번</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>테스트8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>대화테스트8번</t>
-  </si>
-  <si>
-    <t>테스트9</t>
-  </si>
-  <si>
-    <t>대화테스트9번</t>
-  </si>
-  <si>
-    <t>Pos1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":1,"Name":"테스트2","Text":"대화테스트2번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":2,"Name":"테스트3","Text":"대화테스트3번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":3,"Name":"테스트4","Text":"대화테스트4번","Sprite1":308801,"Pos1":874,"Layer1":null,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":4,"Name":"테스트5","Text":"대화테스트5번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":5,"Name":"테스트6","Text":"대화테스트6번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":6,"Name":"테스트7","Text":"대화테스트7번","Sprite1":308801,"Pos1":874,"Layer1":1,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":7,"Name":"테스트8","Text":"대화테스트8번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":8,"Name":"테스트9","Text":"대화테스트9번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Test":</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":0,"Name":"테스트1","Text":"대화테스트1번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_308801</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>D_308001</t>
-  </si>
-  <si>
-    <t>D_308001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stamp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선생님 도장 틀렸어요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇군요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주의하겠습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 수고요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>애들리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>패처 정상작동 테스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_End</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>완</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_Begin</t>
-  </si>
-  <si>
-    <t>1_Begin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 번에 배경 페이드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fade_out</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>background</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fade_in</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Street</t>
-  </si>
-  <si>
-    <t>main_talk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainTalk_Sprite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>D_308801</t>
-  </si>
-  <si>
-    <t>D_308801</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1face</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인공의 말하기 2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2face</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인공의 말하는데 엄청 긴 단어를 말하는 중</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청 긴 단어를 말하는 중 엄청 긴 단어를 말하는 중</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr1_image_change</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr2_image_change</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr1_move</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포트하기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서서히 움직이기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓸데없는 내용~ &lt;- 반영 안되는게 맞음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr1_image_change</t>
+  </si>
+  <si>
+    <t>chr2_image_change</t>
+  </si>
+  <si>
+    <t>무야호</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -285,11 +294,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>춥다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr1_goal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고파</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오늘의 목표는 "&lt;!Goal&gt;" 입니다. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>오늘은 날씨가 좋네요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>춥다</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -775,17 +800,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -915,7 +929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,15 +943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,560 +1321,487 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
-    <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="49.5" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3">
-        <v>874</v>
-      </c>
-      <c r="I2" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="3">
-        <v>874</v>
-      </c>
-      <c r="M2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="3">
-        <v>900</v>
-      </c>
-      <c r="I3" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="3">
-        <v>874</v>
-      </c>
-      <c r="M3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="3">
-        <v>874</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3">
-        <v>874</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="3">
-        <v>874</v>
-      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>35</v>
+      <c r="J5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>900</v>
       </c>
       <c r="L5" s="3">
         <v>874</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="3">
-        <v>874</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="3">
-        <v>874</v>
-      </c>
-      <c r="M6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="3">
-        <v>874</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="3">
-        <v>874</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="3">
-        <v>874</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="3">
-        <v>874</v>
-      </c>
-      <c r="M8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="3">
-        <v>874</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="3">
-        <v>874</v>
-      </c>
-      <c r="M9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="3">
-        <v>874</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="3">
-        <v>874</v>
-      </c>
-      <c r="M10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="3">
-        <v>874</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="3">
-        <v>874</v>
-      </c>
-      <c r="M11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="3">
-        <v>874</v>
-      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>35</v>
+      <c r="J12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>500</v>
       </c>
       <c r="L12" s="3">
         <v>874</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="3">
+      <c r="H14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="L14" s="3">
+        <v>874</v>
+      </c>
+      <c r="M14" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1877,24 +1809,24 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1902,70 +1834,263 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="3">
-        <v>874</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="3">
-        <v>874</v>
-      </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B26" s="3">
         <v>0</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1978,79 +2103,79 @@
   <dimension ref="B1:B14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026F1FF5-7832-46C8-9A14-613EAD5D84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D1E2A7-8EB0-4035-919B-63210F3A774F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D1E2A7-8EB0-4035-919B-63210F3A774F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C73A37-C3A3-4F9A-B3FD-F01419803C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>Index</t>
   </si>
@@ -315,6 +315,10 @@
   </si>
   <si>
     <t>오늘은 날씨가 좋네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘는 고정이 안되는데, 다음 목표는 고정이 되요</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1321,10 +1325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2080,17 +2084,42 @@
         <v>74</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C73A37-C3A3-4F9A-B3FD-F01419803C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5D92C0-9525-4238-9F6A-1C49815E6401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
   <si>
     <t>Index</t>
   </si>
@@ -272,10 +272,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>서서히 움직이기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>쓸데없는 내용~ &lt;- 반영 안되는게 맞음</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -286,10 +282,6 @@
     <t>chr2_image_change</t>
   </si>
   <si>
-    <t>무야호</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>chr1_daily</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -319,6 +311,22 @@
   </si>
   <si>
     <t>얘는 고정이 안되는데, 다음 목표는 고정이 되요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화부터 화면 줌 / 아웃 연출 시작</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_zoom_start</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서서히 움직이기, 다음 대화에서 줌 / 아웃 끝</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_zoom_end</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1325,10 +1333,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1458,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>43</v>
@@ -1472,7 +1480,9 @@
       <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
@@ -1493,23 +1503,23 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1518,7 +1528,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -1528,14 +1538,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1545,24 +1553,26 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1570,24 +1580,24 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1601,22 +1611,18 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1630,18 +1636,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1649,58 +1659,58 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>874</v>
-      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="J13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>500</v>
+      </c>
+      <c r="L13" s="3">
+        <v>874</v>
+      </c>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1711,30 +1721,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>874</v>
-      </c>
-      <c r="M14" s="3">
-        <v>5</v>
-      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1744,22 +1746,30 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="J15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>874</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1773,10 +1783,10 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1788,60 +1798,60 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>37</v>
@@ -1851,7 +1861,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1866,17 +1876,17 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1891,17 +1901,17 @@
         <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1916,21 +1926,21 @@
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1938,82 +1948,78 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2021,35 +2027,39 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>37</v>
@@ -2059,19 +2069,19 @@
         <v>6</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -2081,13 +2091,13 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2096,7 +2106,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -2106,20 +2116,70 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5D92C0-9525-4238-9F6A-1C49815E6401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D65AD5B-7784-460A-BDE7-2EA315B39937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="27180" windowHeight="10890" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>Index</t>
   </si>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>대화테스트8번</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>D_308801</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -327,6 +323,54 @@
   </si>
   <si>
     <t>auto_zoom_end</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고르시오</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥을 먹는다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠을 잔다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥 먹는다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨을 먹는다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>드르렁</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1333,10 +1377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1406,10 +1450,10 @@
       <c r="F2" s="4"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1433,10 +1477,10 @@
       <c r="F3" s="4"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1458,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>43</v>
@@ -1487,7 +1531,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="b">
@@ -1518,7 +1562,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1643,7 +1687,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
@@ -1699,7 +1743,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="b">
@@ -1728,7 +1772,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1755,7 +1799,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="b">
@@ -1786,7 +1830,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1813,7 +1857,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1836,7 +1880,7 @@
         <v>58</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1848,157 +1892,163 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -2006,28 +2056,24 @@
       <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -2035,28 +2081,24 @@
       <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
@@ -2066,39 +2108,39 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2106,24 +2148,24 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2131,23 +2173,23 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2156,30 +2198,188 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D65AD5B-7784-460A-BDE7-2EA315B39937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DF8E5C-F666-452E-BC4D-08BBFDF506A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="27180" windowHeight="10890" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>쓸데없는 내용~ &lt;- 반영 안되는게 맞음</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>chr1_image_change</t>
   </si>
   <si>
@@ -371,6 +367,10 @@
   </si>
   <si>
     <t>드르렁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓸데없는 내용 &lt;- 반영 안되는게 맞음</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1379,8 +1379,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>43</v>
@@ -1562,7 +1562,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
@@ -1830,7 +1830,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1857,7 +1857,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1880,7 +1880,7 @@
         <v>58</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1905,14 +1905,14 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1932,14 +1932,14 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -1958,10 +1958,10 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -1983,10 +1983,10 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -2008,10 +2008,10 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -2033,10 +2033,10 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2215,7 +2215,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>60</v>
@@ -2244,7 +2244,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>59</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -2341,10 +2341,10 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -2366,14 +2366,14 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>

--- a/Project_V/Assets/ExcelFiles/dialogue.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DF8E5C-F666-452E-BC4D-08BBFDF506A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39251ADE-3035-47F3-987A-DA577BE4F06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
